--- a/Car Weight Prediction/displacementdataset.xlsx
+++ b/Car Weight Prediction/displacementdataset.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshith\Desktop\Machine-Learning\MPG prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshith\Desktop\Machine-Learning\Car Weight Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10233"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10233"/>
   </bookViews>
   <sheets>
     <sheet name="Cleaned1" sheetId="1" r:id="rId1"/>
@@ -867,11 +867,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="B400" sqref="B400"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11.5859375" customWidth="1"/>
+    <col min="1" max="1" width="16.05859375" customWidth="1"/>
+    <col min="2" max="2" width="13.17578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
